--- a/medicine/Pharmacie/Antimycobactérien/Antimycobactérien.xlsx
+++ b/medicine/Pharmacie/Antimycobactérien/Antimycobactérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antimycobact%C3%A9rien</t>
+          <t>Antimycobactérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un antimycobactérien est une molécule de type antibiotique utilisée pour son action antimycobactérienne c’est-à-dire pour lutter contre les infections provoquées par les mycobactéries[1].
-On compte essentiellement parmi ces médicaments les traitements contre la tuberculose et les agents léprostatiques (utilisés dans la lutte contre la lèpre)[2]. Mais ces molécules sont aussi à des degrés divers efficaces contre les mycobactérioses rares comme la pleuropneumonie à Mycobacterium chelonae[3] ou émergente comme l’ulcère de Buruli[4].
-Les antimycobactériens d’usage le plus courant sont : rifampicine, rifamycine, rifabutine, isoniazide, éthambutol, ethionamide, pyrazinamide, clofazimine, dapsone[2]. Ils ne s’utilisent jamais seuls mais toujours en combinaisons de plusieurs molécules dans les indications antimycobactériennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un antimycobactérien est une molécule de type antibiotique utilisée pour son action antimycobactérienne c’est-à-dire pour lutter contre les infections provoquées par les mycobactéries.
+On compte essentiellement parmi ces médicaments les traitements contre la tuberculose et les agents léprostatiques (utilisés dans la lutte contre la lèpre). Mais ces molécules sont aussi à des degrés divers efficaces contre les mycobactérioses rares comme la pleuropneumonie à Mycobacterium chelonae ou émergente comme l’ulcère de Buruli.
+Les antimycobactériens d’usage le plus courant sont : rifampicine, rifamycine, rifabutine, isoniazide, éthambutol, ethionamide, pyrazinamide, clofazimine, dapsone. Ils ne s’utilisent jamais seuls mais toujours en combinaisons de plusieurs molécules dans les indications antimycobactériennes.
 </t>
         </is>
       </c>
